--- a/data/trans_dic/P78A_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2601622903342797</v>
+        <v>0.2698384082012886</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2272888298221492</v>
+        <v>0.2232571029907138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2756004844444715</v>
+        <v>0.2696237451835762</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4423652329393369</v>
+        <v>0.4551327827250532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3776457071720588</v>
+        <v>0.3866961697784415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3861682776517793</v>
+        <v>0.3916759481368149</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.850482848841471</v>
+        <v>0.8504828488414707</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7441927324398933</v>
+        <v>0.7441927324398937</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7775768181683138</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7199465465810578</v>
+        <v>0.7170538548244568</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6639784572991865</v>
+        <v>0.6621071041738836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7133080572127185</v>
+        <v>0.7230262257792632</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9374620449709077</v>
+        <v>0.9373080427473161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8089665786727872</v>
+        <v>0.8126409006577299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8363165818536858</v>
+        <v>0.8325055856450243</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9265720589787155</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8077085104627786</v>
+        <v>0.8077085104627785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.840442310661956</v>
+        <v>0.8404423106619561</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8415018858072068</v>
+        <v>0.840514891901877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.758977855145362</v>
+        <v>0.7592136609444992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7988292937600991</v>
+        <v>0.8005370030217114</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9676329271347943</v>
+        <v>0.9730428549542499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8531095376208793</v>
+        <v>0.8510786253584087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8742852314874363</v>
+        <v>0.87630547790935</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9280582407080016</v>
+        <v>0.9280582407080018</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7366163716464439</v>
+        <v>0.736616371646444</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8030457618252479</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8714581153347165</v>
+        <v>0.875111055726731</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6921002513208702</v>
+        <v>0.6921746786120945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7698270688386593</v>
+        <v>0.771002171282354</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9635272464062987</v>
+        <v>0.963759303854628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7776618268890912</v>
+        <v>0.77644687502841</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8332649820395087</v>
+        <v>0.8361279547712683</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.979514863970408</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8224763560495857</v>
+        <v>0.8224763560495856</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8885942170648887</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9554495708620655</v>
+        <v>0.954344643025189</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7907436073448817</v>
+        <v>0.7899187429488064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8663242964289997</v>
+        <v>0.8693169865080074</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9927683790099914</v>
+        <v>0.9915795119690899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8510659407382499</v>
+        <v>0.8544158037931402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9062118088074239</v>
+        <v>0.9081839138050775</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9934444841942576</v>
+        <v>0.9934444841942575</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9291336422531367</v>
+        <v>0.9291336422531365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9600205673543907</v>
+        <v>0.960020567354391</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9830151345882824</v>
+        <v>0.9829017420113079</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9083279820873249</v>
+        <v>0.9092593003887894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9492115187340162</v>
+        <v>0.949173906730711</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9984842458719697</v>
+        <v>0.9984794581272488</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9461769039406432</v>
+        <v>0.9454354460280056</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9689678360578251</v>
+        <v>0.9694609066823894</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9961776215685042</v>
+        <v>0.9961776215685044</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.836210653181899</v>
+        <v>0.8362106531818992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9001713818418947</v>
+        <v>0.9001713818418949</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9867056798289813</v>
+        <v>0.9853520034134172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8080316206280206</v>
+        <v>0.80751219011477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8816485744478051</v>
+        <v>0.8814588944629657</v>
       </c>
     </row>
     <row r="24">
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8621878363032588</v>
+        <v>0.8629692328779305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9167488225348632</v>
+        <v>0.9164974457577256</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>75691</v>
+        <v>78506</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59550</v>
+        <v>58494</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>152390</v>
+        <v>149085</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128700</v>
+        <v>132415</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>98944</v>
+        <v>101315</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>213527</v>
+        <v>216573</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>62172</v>
+        <v>61923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>125221</v>
+        <v>124868</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>196123</v>
+        <v>198795</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>80956</v>
+        <v>80943</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>152565</v>
+        <v>153258</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>229944</v>
+        <v>228897</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71693</v>
+        <v>71609</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>170139</v>
+        <v>170191</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>247129</v>
+        <v>247657</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82438</v>
+        <v>82899</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191240</v>
+        <v>190785</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>270472</v>
+        <v>271097</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133351</v>
+        <v>133909</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>199301</v>
+        <v>199322</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>339482</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>147439</v>
+        <v>147474</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>223939</v>
+        <v>223590</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>367457</v>
+        <v>368720</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>266674</v>
+        <v>266365</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>303495</v>
+        <v>303179</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>574302</v>
+        <v>576286</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>277090</v>
+        <v>276758</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>326648</v>
+        <v>327933</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>600744</v>
+        <v>602051</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>380850</v>
+        <v>380806</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>380819</v>
+        <v>381210</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>765713</v>
+        <v>765682</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>386843</v>
+        <v>386841</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>396688</v>
+        <v>396377</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>781650</v>
+        <v>782048</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>304282</v>
+        <v>303865</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>374027</v>
+        <v>373787</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>679987</v>
+        <v>679841</v>
       </c>
     </row>
     <row r="31">
@@ -1586,10 +1586,10 @@
         <v>308382</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>399096</v>
+        <v>399457</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>707059</v>
+        <v>706865</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
     </row>
     <row r="36">
